--- a/Dataset Xa vs ACT goed.xlsx
+++ b/Dataset Xa vs ACT goed.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tuenl-my.sharepoint.com/personal/l_v_sprang_student_tue_nl/Documents/Use blood coagulation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\20223809\Desktop\Universiteit\Jaar 2\Q1\DTIH Part 1\Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{AFEE17ED-9FE4-429C-9E1A-2DB583E3FF0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8260D5F5-3AC1-462D-9CA1-0278A55DDB5F}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{582D2E5C-456E-4854-994F-56F8EC5ED222}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F5C1E722-180B-4D2B-A2B5-B20951730755}"/>
   </bookViews>
@@ -33,6 +33,17 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t>Antifactor Xa (IU/mL)</t>
+  </si>
+  <si>
+    <t>ACT (s)</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -70,7 +81,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -86,7 +97,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -382,20 +393,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEEE0719-3E58-496F-8FA3-DDE5F948B227}">
-  <dimension ref="A1:B229"/>
+  <dimension ref="A1:B230"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19.5546875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1">
-        <v>0.103092783505154</v>
-      </c>
-      <c r="B1">
-        <v>95.469255663430303</v>
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -403,7 +415,7 @@
         <v>0.103092783505154</v>
       </c>
       <c r="B2">
-        <v>103.55987055016099</v>
+        <v>95.469255663430303</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -411,7 +423,7 @@
         <v>0.103092783505154</v>
       </c>
       <c r="B3">
-        <v>111.65048543689301</v>
+        <v>103.55987055016099</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -419,7 +431,7 @@
         <v>0.103092783505154</v>
       </c>
       <c r="B4">
-        <v>118.12297734627801</v>
+        <v>111.65048543689301</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -427,7 +439,7 @@
         <v>0.103092783505154</v>
       </c>
       <c r="B5">
-        <v>126.213592233009</v>
+        <v>118.12297734627801</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -435,111 +447,111 @@
         <v>0.103092783505154</v>
       </c>
       <c r="B6">
-        <v>140.77669902912601</v>
+        <v>126.213592233009</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>0.120274914089347</v>
+        <v>0.103092783505154</v>
       </c>
       <c r="B7">
-        <v>153.72168284789601</v>
+        <v>140.77669902912601</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>1.21993127147766</v>
+        <v>0.120274914089347</v>
       </c>
       <c r="B8">
-        <v>355.98705501618099</v>
+        <v>153.72168284789601</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>1.87285223367697</v>
+        <v>1.21993127147766</v>
       </c>
       <c r="B9">
-        <v>441.74757281553298</v>
+        <v>355.98705501618099</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>1.92439862542955</v>
+        <v>1.87285223367697</v>
       </c>
       <c r="B10">
-        <v>367.31391585760502</v>
+        <v>441.74757281553298</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>2.0790378006872801</v>
+        <v>1.92439862542955</v>
       </c>
       <c r="B11">
-        <v>438.511326860841</v>
+        <v>367.31391585760502</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>2.3367697594501702</v>
+        <v>2.0790378006872801</v>
       </c>
       <c r="B12">
-        <v>637.540453074433</v>
+        <v>438.511326860841</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>2.5945017182130501</v>
+        <v>2.3367697594501702</v>
       </c>
       <c r="B13">
-        <v>661.81229773462701</v>
+        <v>637.540453074433</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>2.6288659793814402</v>
+        <v>2.5945017182130501</v>
       </c>
       <c r="B14">
-        <v>469.25566343041999</v>
+        <v>661.81229773462701</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>2.66323024054982</v>
+        <v>2.6288659793814402</v>
       </c>
       <c r="B15">
-        <v>535.59870550161804</v>
+        <v>469.25566343041999</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>2.80068728522336</v>
+        <v>2.66323024054982</v>
       </c>
       <c r="B16">
-        <v>546.92556634304196</v>
+        <v>535.59870550161804</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>2.8865979381443201</v>
+        <v>2.80068728522336</v>
       </c>
       <c r="B17">
-        <v>417.47572815533903</v>
+        <v>546.92556634304196</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>2.9553264604810998</v>
+        <v>2.8865979381443201</v>
       </c>
       <c r="B18">
-        <v>415.85760517799298</v>
+        <v>417.47572815533903</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>2.9896907216494801</v>
+        <v>2.9553264604810998</v>
       </c>
       <c r="B19">
-        <v>377.02265372168199</v>
+        <v>415.85760517799298</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -547,15 +559,15 @@
         <v>2.9896907216494801</v>
       </c>
       <c r="B20">
-        <v>512.94498381876997</v>
+        <v>377.02265372168199</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>3.0068728522336698</v>
+        <v>2.9896907216494801</v>
       </c>
       <c r="B21">
-        <v>396.44012944983803</v>
+        <v>512.94498381876997</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
@@ -563,39 +575,39 @@
         <v>3.0068728522336698</v>
       </c>
       <c r="B22">
-        <v>504.85436893203803</v>
+        <v>396.44012944983803</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>3.02405498281786</v>
+        <v>3.0068728522336698</v>
       </c>
       <c r="B23">
-        <v>430.42071197411002</v>
+        <v>504.85436893203803</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>3.1443298969072102</v>
+        <v>3.02405498281786</v>
       </c>
       <c r="B24">
-        <v>391.58576051779897</v>
+        <v>430.42071197411002</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>3.1615120274913999</v>
+        <v>3.1443298969072102</v>
       </c>
       <c r="B25">
-        <v>451.45631067961102</v>
+        <v>391.58576051779897</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>3.1786941580755999</v>
+        <v>3.1615120274913999</v>
       </c>
       <c r="B26">
-        <v>388.34951456310603</v>
+        <v>451.45631067961102</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
@@ -603,15 +615,15 @@
         <v>3.1786941580755999</v>
       </c>
       <c r="B27">
-        <v>372.168284789643</v>
+        <v>388.34951456310603</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>3.2130584192439802</v>
+        <v>3.1786941580755999</v>
       </c>
       <c r="B28">
-        <v>472.49190938511299</v>
+        <v>372.168284789643</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
@@ -619,15 +631,15 @@
         <v>3.2130584192439802</v>
       </c>
       <c r="B29">
-        <v>585.76051779935199</v>
+        <v>472.49190938511299</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>3.2302405498281699</v>
+        <v>3.2130584192439802</v>
       </c>
       <c r="B30">
-        <v>441.74757281553298</v>
+        <v>585.76051779935199</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
@@ -635,47 +647,47 @@
         <v>3.2302405498281699</v>
       </c>
       <c r="B31">
-        <v>414.23948220064699</v>
+        <v>441.74757281553298</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>3.26460481099656</v>
+        <v>3.2302405498281699</v>
       </c>
       <c r="B32">
-        <v>459.54692556634302</v>
+        <v>414.23948220064699</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>3.2817869415807501</v>
+        <v>3.26460481099656</v>
       </c>
       <c r="B33">
-        <v>389.96763754045298</v>
+        <v>459.54692556634302</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>3.3333333333333299</v>
+        <v>3.2817869415807501</v>
       </c>
       <c r="B34">
-        <v>466.01941747572801</v>
+        <v>389.96763754045298</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>3.41924398625429</v>
+        <v>3.3333333333333299</v>
       </c>
       <c r="B35">
-        <v>386.73139158575998</v>
+        <v>466.01941747572801</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>3.4536082474226699</v>
+        <v>3.41924398625429</v>
       </c>
       <c r="B36">
-        <v>381.87702265372099</v>
+        <v>386.73139158575998</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
@@ -683,23 +695,23 @@
         <v>3.4536082474226699</v>
       </c>
       <c r="B37">
-        <v>543.68932038834896</v>
+        <v>381.87702265372099</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>3.5051546391752502</v>
+        <v>3.4536082474226699</v>
       </c>
       <c r="B38">
-        <v>514.56310679611602</v>
+        <v>543.68932038834896</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>3.5223367697594399</v>
+        <v>3.5051546391752502</v>
       </c>
       <c r="B39">
-        <v>368.93203883495102</v>
+        <v>514.56310679611602</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
@@ -707,23 +719,23 @@
         <v>3.5223367697594399</v>
       </c>
       <c r="B40">
-        <v>414.23948220064699</v>
+        <v>368.93203883495102</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>3.5738831615120201</v>
+        <v>3.5223367697594399</v>
       </c>
       <c r="B41">
-        <v>404.530744336569</v>
+        <v>414.23948220064699</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>3.5910652920962201</v>
+        <v>3.5738831615120201</v>
       </c>
       <c r="B42">
-        <v>485.43689320388302</v>
+        <v>404.530744336569</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
@@ -731,15 +743,15 @@
         <v>3.5910652920962201</v>
       </c>
       <c r="B43">
-        <v>639.15857605177905</v>
+        <v>485.43689320388302</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>3.6082474226804102</v>
+        <v>3.5910652920962201</v>
       </c>
       <c r="B44">
-        <v>519.41747572815495</v>
+        <v>639.15857605177905</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
@@ -747,7 +759,7 @@
         <v>3.6082474226804102</v>
       </c>
       <c r="B45">
-        <v>432.03883495145601</v>
+        <v>519.41747572815495</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
@@ -755,31 +767,31 @@
         <v>3.6082474226804102</v>
       </c>
       <c r="B46">
-        <v>611.65048543689295</v>
+        <v>432.03883495145601</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>3.6426116838487901</v>
+        <v>3.6082474226804102</v>
       </c>
       <c r="B47">
-        <v>370.55016181229701</v>
+        <v>611.65048543689295</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>3.65979381443299</v>
+        <v>3.6426116838487901</v>
       </c>
       <c r="B48">
-        <v>444.98381877022598</v>
+        <v>370.55016181229701</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>3.71134020618556</v>
+        <v>3.65979381443299</v>
       </c>
       <c r="B49">
-        <v>401.29449838187702</v>
+        <v>444.98381877022598</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
@@ -787,31 +799,31 @@
         <v>3.71134020618556</v>
       </c>
       <c r="B50">
-        <v>472.49190938511299</v>
+        <v>401.29449838187702</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>3.7285223367697502</v>
+        <v>3.71134020618556</v>
       </c>
       <c r="B51">
-        <v>433.656957928802</v>
+        <v>472.49190938511299</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>3.7628865979381398</v>
+        <v>3.7285223367697502</v>
       </c>
       <c r="B52">
-        <v>427.18446601941702</v>
+        <v>433.656957928802</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53">
-        <v>3.7972508591065202</v>
+        <v>3.7628865979381398</v>
       </c>
       <c r="B53">
-        <v>412.62135922329998</v>
+        <v>427.18446601941702</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
@@ -819,31 +831,31 @@
         <v>3.7972508591065202</v>
       </c>
       <c r="B54">
-        <v>357.60517799352698</v>
+        <v>412.62135922329998</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55">
-        <v>3.8144329896907201</v>
+        <v>3.7972508591065202</v>
       </c>
       <c r="B55">
-        <v>467.637540453074</v>
+        <v>357.60517799352698</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56">
-        <v>3.8316151202749098</v>
+        <v>3.8144329896907201</v>
       </c>
       <c r="B56">
-        <v>370.55016181229701</v>
+        <v>467.637540453074</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57">
-        <v>3.8487972508591</v>
+        <v>3.8316151202749098</v>
       </c>
       <c r="B57">
-        <v>433.656957928802</v>
+        <v>370.55016181229701</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
@@ -851,31 +863,31 @@
         <v>3.8487972508591</v>
       </c>
       <c r="B58">
-        <v>441.74757281553298</v>
+        <v>433.656957928802</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>3.88316151202749</v>
+        <v>3.8487972508591</v>
       </c>
       <c r="B59">
-        <v>423.94822006472401</v>
+        <v>441.74757281553298</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>3.9003436426116802</v>
+        <v>3.88316151202749</v>
       </c>
       <c r="B60">
-        <v>365.69579288025801</v>
+        <v>423.94822006472401</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61">
-        <v>3.9175257731958699</v>
+        <v>3.9003436426116802</v>
       </c>
       <c r="B61">
-        <v>401.29449838187702</v>
+        <v>365.69579288025801</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
@@ -883,23 +895,23 @@
         <v>3.9175257731958699</v>
       </c>
       <c r="B62">
-        <v>377.02265372168199</v>
+        <v>401.29449838187702</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63">
-        <v>3.95189003436426</v>
+        <v>3.9175257731958699</v>
       </c>
       <c r="B63">
-        <v>438.511326860841</v>
+        <v>377.02265372168199</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64">
-        <v>3.9690721649484502</v>
+        <v>3.95189003436426</v>
       </c>
       <c r="B64">
-        <v>435.27508090614799</v>
+        <v>438.511326860841</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
@@ -907,23 +919,23 @@
         <v>3.9690721649484502</v>
       </c>
       <c r="B65">
-        <v>448.22006472491898</v>
+        <v>435.27508090614799</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66">
-        <v>3.9862542955326399</v>
+        <v>3.9690721649484502</v>
       </c>
       <c r="B66">
-        <v>495.14563106796101</v>
+        <v>448.22006472491898</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67">
-        <v>4.0034364261168296</v>
+        <v>3.9862542955326399</v>
       </c>
       <c r="B67">
-        <v>367.31391585760502</v>
+        <v>495.14563106796101</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
@@ -931,7 +943,7 @@
         <v>4.0034364261168296</v>
       </c>
       <c r="B68">
-        <v>391.58576051779897</v>
+        <v>367.31391585760502</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
@@ -939,7 +951,7 @@
         <v>4.0034364261168296</v>
       </c>
       <c r="B69">
-        <v>411.00323624595399</v>
+        <v>391.58576051779897</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
@@ -947,15 +959,15 @@
         <v>4.0034364261168296</v>
       </c>
       <c r="B70">
-        <v>417.47572815533903</v>
+        <v>411.00323624595399</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71">
-        <v>4.02061855670103</v>
+        <v>4.0034364261168296</v>
       </c>
       <c r="B71">
-        <v>401.29449838187702</v>
+        <v>417.47572815533903</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
@@ -963,23 +975,23 @@
         <v>4.02061855670103</v>
       </c>
       <c r="B72">
-        <v>525.88996763754005</v>
+        <v>401.29449838187702</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73">
-        <v>4.0378006872852197</v>
+        <v>4.02061855670103</v>
       </c>
       <c r="B73">
-        <v>378.640776699029</v>
+        <v>525.88996763754005</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74">
-        <v>4.0721649484536</v>
+        <v>4.0378006872852197</v>
       </c>
       <c r="B74">
-        <v>325.24271844660097</v>
+        <v>378.640776699029</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
@@ -987,7 +999,7 @@
         <v>4.0721649484536</v>
       </c>
       <c r="B75">
-        <v>436.893203883495</v>
+        <v>325.24271844660097</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
@@ -995,23 +1007,23 @@
         <v>4.0721649484536</v>
       </c>
       <c r="B76">
-        <v>514.56310679611602</v>
+        <v>436.893203883495</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77">
-        <v>4.0893470790378004</v>
+        <v>4.0721649484536</v>
       </c>
       <c r="B77">
-        <v>396.44012944983803</v>
+        <v>514.56310679611602</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78">
-        <v>4.1065292096219901</v>
+        <v>4.0893470790378004</v>
       </c>
       <c r="B78">
-        <v>425.56634304207103</v>
+        <v>396.44012944983803</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
@@ -1019,7 +1031,7 @@
         <v>4.1065292096219901</v>
       </c>
       <c r="B79">
-        <v>449.83818770226497</v>
+        <v>425.56634304207103</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
@@ -1027,15 +1039,15 @@
         <v>4.1065292096219901</v>
       </c>
       <c r="B80">
-        <v>491.909385113268</v>
+        <v>449.83818770226497</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81">
-        <v>4.1237113402061798</v>
+        <v>4.1065292096219901</v>
       </c>
       <c r="B81">
-        <v>359.22330097087303</v>
+        <v>491.909385113268</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
@@ -1043,15 +1055,15 @@
         <v>4.1237113402061798</v>
       </c>
       <c r="B82">
-        <v>474.11003236245898</v>
+        <v>359.22330097087303</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83">
-        <v>4.1408934707903704</v>
+        <v>4.1237113402061798</v>
       </c>
       <c r="B83">
-        <v>368.93203883495102</v>
+        <v>474.11003236245898</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
@@ -1059,7 +1071,7 @@
         <v>4.1408934707903704</v>
       </c>
       <c r="B84">
-        <v>415.85760517799298</v>
+        <v>368.93203883495102</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
@@ -1067,23 +1079,23 @@
         <v>4.1408934707903704</v>
       </c>
       <c r="B85">
-        <v>461.16504854368901</v>
+        <v>415.85760517799298</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86">
-        <v>4.1752577319587596</v>
+        <v>4.1408934707903704</v>
       </c>
       <c r="B86">
-        <v>402.91262135922301</v>
+        <v>461.16504854368901</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87">
-        <v>4.1924398625429502</v>
+        <v>4.1752577319587596</v>
       </c>
       <c r="B87">
-        <v>391.58576051779897</v>
+        <v>402.91262135922301</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
@@ -1091,23 +1103,23 @@
         <v>4.1924398625429502</v>
       </c>
       <c r="B88">
-        <v>432.03883495145601</v>
+        <v>391.58576051779897</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89">
-        <v>4.2268041237113296</v>
+        <v>4.1924398625429502</v>
       </c>
       <c r="B89">
-        <v>488.67313915857602</v>
+        <v>432.03883495145601</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90">
-        <v>4.2611683848797197</v>
+        <v>4.2268041237113296</v>
       </c>
       <c r="B90">
-        <v>474.11003236245898</v>
+        <v>488.67313915857602</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
@@ -1115,7 +1127,7 @@
         <v>4.2611683848797197</v>
       </c>
       <c r="B91">
-        <v>546.92556634304196</v>
+        <v>474.11003236245898</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
@@ -1123,15 +1135,15 @@
         <v>4.2611683848797197</v>
       </c>
       <c r="B92">
-        <v>613.268608414239</v>
+        <v>546.92556634304196</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93">
-        <v>4.2783505154639103</v>
+        <v>4.2611683848797197</v>
       </c>
       <c r="B93">
-        <v>420.71197411003197</v>
+        <v>613.268608414239</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
@@ -1139,15 +1151,15 @@
         <v>4.2783505154639103</v>
       </c>
       <c r="B94">
-        <v>631.06796116504802</v>
+        <v>420.71197411003197</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95">
-        <v>4.2955326460481098</v>
+        <v>4.2783505154639103</v>
       </c>
       <c r="B95">
-        <v>386.73139158575998</v>
+        <v>631.06796116504802</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
@@ -1155,15 +1167,15 @@
         <v>4.2955326460481098</v>
       </c>
       <c r="B96">
-        <v>443.36569579287999</v>
+        <v>386.73139158575998</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97">
-        <v>4.3127147766323004</v>
+        <v>4.2955326460481098</v>
       </c>
       <c r="B97">
-        <v>430.42071197411002</v>
+        <v>443.36569579287999</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
@@ -1171,15 +1183,15 @@
         <v>4.3127147766323004</v>
       </c>
       <c r="B98">
-        <v>857.60517799352704</v>
+        <v>430.42071197411002</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99">
-        <v>4.3470790378006798</v>
+        <v>4.3127147766323004</v>
       </c>
       <c r="B99">
-        <v>396.44012944983803</v>
+        <v>857.60517799352704</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
@@ -1187,23 +1199,23 @@
         <v>4.3470790378006798</v>
       </c>
       <c r="B100">
-        <v>467.637540453074</v>
+        <v>396.44012944983803</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101">
-        <v>4.3642611683848704</v>
+        <v>4.3470790378006798</v>
       </c>
       <c r="B101">
-        <v>411.00323624595399</v>
+        <v>467.637540453074</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102">
-        <v>4.3814432989690699</v>
+        <v>4.3642611683848704</v>
       </c>
       <c r="B102">
-        <v>449.83818770226497</v>
+        <v>411.00323624595399</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
@@ -1211,15 +1223,15 @@
         <v>4.3814432989690699</v>
       </c>
       <c r="B103">
-        <v>521.035598705501</v>
+        <v>449.83818770226497</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104">
-        <v>4.3986254295532596</v>
+        <v>4.3814432989690699</v>
       </c>
       <c r="B104">
-        <v>488.67313915857602</v>
+        <v>521.035598705501</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
@@ -1227,23 +1239,23 @@
         <v>4.3986254295532596</v>
       </c>
       <c r="B105">
-        <v>475.72815533980503</v>
+        <v>488.67313915857602</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106">
-        <v>4.4158075601374502</v>
+        <v>4.3986254295532596</v>
       </c>
       <c r="B106">
-        <v>389.96763754045298</v>
+        <v>475.72815533980503</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107">
-        <v>4.4501718213058403</v>
+        <v>4.4158075601374502</v>
       </c>
       <c r="B107">
-        <v>401.29449838187702</v>
+        <v>389.96763754045298</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
@@ -1251,7 +1263,7 @@
         <v>4.4501718213058403</v>
       </c>
       <c r="B108">
-        <v>456.31067961165002</v>
+        <v>401.29449838187702</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
@@ -1259,39 +1271,39 @@
         <v>4.4501718213058403</v>
       </c>
       <c r="B109">
-        <v>1001.61812297734</v>
+        <v>456.31067961165002</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110">
-        <v>4.46735395189003</v>
+        <v>4.4501718213058403</v>
       </c>
       <c r="B110">
-        <v>443.36569579287999</v>
+        <v>1001.61812297734</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111">
-        <v>4.4845360824742198</v>
+        <v>4.46735395189003</v>
       </c>
       <c r="B111">
-        <v>533.98058252427097</v>
+        <v>443.36569579287999</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112">
-        <v>4.5017182130584104</v>
+        <v>4.4845360824742198</v>
       </c>
       <c r="B112">
-        <v>417.47572815533903</v>
+        <v>533.98058252427097</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113">
-        <v>4.5189003436426098</v>
+        <v>4.5017182130584104</v>
       </c>
       <c r="B113">
-        <v>430.42071197411002</v>
+        <v>417.47572815533903</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
@@ -1299,39 +1311,39 @@
         <v>4.5189003436426098</v>
       </c>
       <c r="B114">
-        <v>490.29126213592201</v>
+        <v>430.42071197411002</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115">
-        <v>4.5360824742268004</v>
+        <v>4.5189003436426098</v>
       </c>
       <c r="B115">
-        <v>462.783171521035</v>
+        <v>490.29126213592201</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116">
-        <v>4.5532646048109902</v>
+        <v>4.5360824742268004</v>
       </c>
       <c r="B116">
-        <v>475.72815533980503</v>
+        <v>462.783171521035</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117">
-        <v>4.5876288659793802</v>
+        <v>4.5532646048109902</v>
       </c>
       <c r="B117">
-        <v>391.58576051779897</v>
+        <v>475.72815533980503</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118">
-        <v>4.6391752577319503</v>
+        <v>4.5876288659793802</v>
       </c>
       <c r="B118">
-        <v>404.530744336569</v>
+        <v>391.58576051779897</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
@@ -1339,7 +1351,7 @@
         <v>4.6391752577319503</v>
       </c>
       <c r="B119">
-        <v>438.511326860841</v>
+        <v>404.530744336569</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
@@ -1347,15 +1359,15 @@
         <v>4.6391752577319503</v>
       </c>
       <c r="B120">
-        <v>423.94822006472401</v>
+        <v>438.511326860841</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121">
-        <v>4.6563573883161498</v>
+        <v>4.6391752577319503</v>
       </c>
       <c r="B121">
-        <v>449.83818770226497</v>
+        <v>423.94822006472401</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
@@ -1363,15 +1375,15 @@
         <v>4.6563573883161498</v>
       </c>
       <c r="B122">
-        <v>469.25566343041999</v>
+        <v>449.83818770226497</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123">
-        <v>4.7079037800687198</v>
+        <v>4.6563573883161498</v>
       </c>
       <c r="B123">
-        <v>378.640776699029</v>
+        <v>469.25566343041999</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.3">
@@ -1379,23 +1391,23 @@
         <v>4.7079037800687198</v>
       </c>
       <c r="B124">
-        <v>477.34627831715198</v>
+        <v>378.640776699029</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125">
-        <v>4.7250859106529202</v>
+        <v>4.7079037800687198</v>
       </c>
       <c r="B125">
-        <v>391.58576051779897</v>
+        <v>477.34627831715198</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126">
-        <v>4.7422680412371099</v>
+        <v>4.7250859106529202</v>
       </c>
       <c r="B126">
-        <v>415.85760517799298</v>
+        <v>391.58576051779897</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.3">
@@ -1403,31 +1415,31 @@
         <v>4.7422680412371099</v>
       </c>
       <c r="B127">
-        <v>433.656957928802</v>
+        <v>415.85760517799298</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128">
-        <v>4.7766323024054902</v>
+        <v>4.7422680412371099</v>
       </c>
       <c r="B128">
-        <v>404.530744336569</v>
+        <v>433.656957928802</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129">
-        <v>4.7938144329896897</v>
+        <v>4.7766323024054902</v>
       </c>
       <c r="B129">
-        <v>480.58252427184402</v>
+        <v>404.530744336569</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130">
-        <v>4.8109965635738803</v>
+        <v>4.7938144329896897</v>
       </c>
       <c r="B130">
-        <v>449.83818770226497</v>
+        <v>480.58252427184402</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.3">
@@ -1435,7 +1447,7 @@
         <v>4.8109965635738803</v>
       </c>
       <c r="B131">
-        <v>514.56310679611602</v>
+        <v>449.83818770226497</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.3">
@@ -1443,23 +1455,23 @@
         <v>4.8109965635738803</v>
       </c>
       <c r="B132">
-        <v>624.59546925566303</v>
+        <v>514.56310679611602</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133">
-        <v>4.82817869415807</v>
+        <v>4.8109965635738803</v>
       </c>
       <c r="B133">
-        <v>466.01941747572801</v>
+        <v>624.59546925566303</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134">
-        <v>4.8625429553264503</v>
+        <v>4.82817869415807</v>
       </c>
       <c r="B134">
-        <v>372.168284789643</v>
+        <v>466.01941747572801</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.3">
@@ -1467,7 +1479,7 @@
         <v>4.8625429553264503</v>
       </c>
       <c r="B135">
-        <v>474.11003236245898</v>
+        <v>372.168284789643</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.3">
@@ -1475,23 +1487,23 @@
         <v>4.8625429553264503</v>
       </c>
       <c r="B136">
-        <v>656.95792880258898</v>
+        <v>474.11003236245898</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137">
-        <v>4.8797250859106498</v>
+        <v>4.8625429553264503</v>
       </c>
       <c r="B137">
-        <v>394.82200647249101</v>
+        <v>656.95792880258898</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138">
-        <v>4.8969072164948404</v>
+        <v>4.8797250859106498</v>
       </c>
       <c r="B138">
-        <v>404.530744336569</v>
+        <v>394.82200647249101</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.3">
@@ -1499,15 +1511,15 @@
         <v>4.8969072164948404</v>
       </c>
       <c r="B139">
-        <v>420.71197411003197</v>
+        <v>404.530744336569</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140">
-        <v>4.9312714776632296</v>
+        <v>4.8969072164948404</v>
       </c>
       <c r="B140">
-        <v>493.52750809061399</v>
+        <v>420.71197411003197</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.3">
@@ -1515,7 +1527,7 @@
         <v>4.9312714776632296</v>
       </c>
       <c r="B141">
-        <v>459.54692556634302</v>
+        <v>493.52750809061399</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.3">
@@ -1523,15 +1535,15 @@
         <v>4.9312714776632296</v>
       </c>
       <c r="B142">
-        <v>444.98381877022598</v>
+        <v>459.54692556634302</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143">
-        <v>4.9656357388316099</v>
+        <v>4.9312714776632296</v>
       </c>
       <c r="B143">
-        <v>373.78640776699001</v>
+        <v>444.98381877022598</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.3">
@@ -1539,23 +1551,23 @@
         <v>4.9656357388316099</v>
       </c>
       <c r="B144">
-        <v>396.44012944983803</v>
+        <v>373.78640776699001</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145">
-        <v>5</v>
+        <v>4.9656357388316099</v>
       </c>
       <c r="B145">
-        <v>464.40129449838099</v>
+        <v>396.44012944983803</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146">
-        <v>5.0171821305841897</v>
+        <v>5</v>
       </c>
       <c r="B146">
-        <v>427.18446601941702</v>
+        <v>464.40129449838099</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.3">
@@ -1563,15 +1575,15 @@
         <v>5.0171821305841897</v>
       </c>
       <c r="B147">
-        <v>443.36569579287999</v>
+        <v>427.18446601941702</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148">
-        <v>5.0343642611683803</v>
+        <v>5.0171821305841897</v>
       </c>
       <c r="B148">
-        <v>388.34951456310603</v>
+        <v>443.36569579287999</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.3">
@@ -1579,15 +1591,15 @@
         <v>5.0343642611683803</v>
       </c>
       <c r="B149">
-        <v>404.530744336569</v>
+        <v>388.34951456310603</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150">
-        <v>5.05154639175257</v>
+        <v>5.0343642611683803</v>
       </c>
       <c r="B150">
-        <v>415.85760517799298</v>
+        <v>404.530744336569</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.3">
@@ -1595,15 +1607,15 @@
         <v>5.05154639175257</v>
       </c>
       <c r="B151">
-        <v>454.69255663430403</v>
+        <v>415.85760517799298</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152">
-        <v>5.1030927835051498</v>
+        <v>5.05154639175257</v>
       </c>
       <c r="B152">
-        <v>508.09061488673098</v>
+        <v>454.69255663430403</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.3">
@@ -1611,15 +1623,15 @@
         <v>5.1030927835051498</v>
       </c>
       <c r="B153">
-        <v>650.48543689320297</v>
+        <v>508.09061488673098</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154">
-        <v>5.1374570446735301</v>
+        <v>5.1030927835051498</v>
       </c>
       <c r="B154">
-        <v>443.36569579287999</v>
+        <v>650.48543689320297</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.3">
@@ -1627,7 +1639,7 @@
         <v>5.1374570446735301</v>
       </c>
       <c r="B155">
-        <v>466.01941747572801</v>
+        <v>443.36569579287999</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.3">
@@ -1635,15 +1647,15 @@
         <v>5.1374570446735301</v>
       </c>
       <c r="B156">
-        <v>475.72815533980503</v>
+        <v>466.01941747572801</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157">
-        <v>5.1718213058419202</v>
+        <v>5.1374570446735301</v>
       </c>
       <c r="B157">
-        <v>422.33009708737802</v>
+        <v>475.72815533980503</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.3">
@@ -1651,7 +1663,7 @@
         <v>5.1718213058419202</v>
       </c>
       <c r="B158">
-        <v>454.69255663430403</v>
+        <v>422.33009708737802</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.3">
@@ -1659,23 +1671,23 @@
         <v>5.1718213058419202</v>
       </c>
       <c r="B159">
-        <v>593.85113268608404</v>
+        <v>454.69255663430403</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160">
-        <v>5.2061855670102997</v>
+        <v>5.1718213058419202</v>
       </c>
       <c r="B160">
-        <v>406.14886731391499</v>
+        <v>593.85113268608404</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161">
-        <v>5.2405498281786898</v>
+        <v>5.2061855670102997</v>
       </c>
       <c r="B161">
-        <v>399.67637540453001</v>
+        <v>406.14886731391499</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.3">
@@ -1683,31 +1695,31 @@
         <v>5.2405498281786898</v>
       </c>
       <c r="B162">
-        <v>503.23624595469198</v>
+        <v>399.67637540453001</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163">
-        <v>5.2920962199312704</v>
+        <v>5.2405498281786898</v>
       </c>
       <c r="B163">
-        <v>462.783171521035</v>
+        <v>503.23624595469198</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164">
-        <v>5.3092783505154602</v>
+        <v>5.2920962199312704</v>
       </c>
       <c r="B164">
-        <v>241.10032362459501</v>
+        <v>462.783171521035</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165">
-        <v>5.3264604810996499</v>
+        <v>5.3092783505154602</v>
       </c>
       <c r="B165">
-        <v>475.72815533980503</v>
+        <v>241.10032362459501</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.3">
@@ -1715,15 +1727,15 @@
         <v>5.3264604810996499</v>
       </c>
       <c r="B166">
-        <v>491.909385113268</v>
+        <v>475.72815533980503</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167">
-        <v>5.3436426116838396</v>
+        <v>5.3264604810996499</v>
       </c>
       <c r="B167">
-        <v>440.12944983818699</v>
+        <v>491.909385113268</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.3">
@@ -1731,23 +1743,23 @@
         <v>5.3436426116838396</v>
       </c>
       <c r="B168">
-        <v>563.10679611650403</v>
+        <v>440.12944983818699</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169">
-        <v>5.3951890034364203</v>
+        <v>5.3436426116838396</v>
       </c>
       <c r="B169">
-        <v>446.60194174757203</v>
+        <v>563.10679611650403</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170">
-        <v>5.41237113402061</v>
+        <v>5.3951890034364203</v>
       </c>
       <c r="B170">
-        <v>417.47572815533903</v>
+        <v>446.60194174757203</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.3">
@@ -1755,15 +1767,15 @@
         <v>5.41237113402061</v>
       </c>
       <c r="B171">
-        <v>495.14563106796101</v>
+        <v>417.47572815533903</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172">
-        <v>5.4295532646047997</v>
+        <v>5.41237113402061</v>
       </c>
       <c r="B172">
-        <v>380.25889967637499</v>
+        <v>495.14563106796101</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.3">
@@ -1771,39 +1783,39 @@
         <v>5.4295532646047997</v>
       </c>
       <c r="B173">
-        <v>401.29449838187702</v>
+        <v>380.25889967637499</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174">
-        <v>5.4467353951890001</v>
+        <v>5.4295532646047997</v>
       </c>
       <c r="B174">
-        <v>469.25566343041999</v>
+        <v>401.29449838187702</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175">
-        <v>5.4639175257731898</v>
+        <v>5.4467353951890001</v>
       </c>
       <c r="B175">
-        <v>543.68932038834896</v>
+        <v>469.25566343041999</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176">
-        <v>5.4810996563573804</v>
+        <v>5.4639175257731898</v>
       </c>
       <c r="B176">
-        <v>521.035598705501</v>
+        <v>543.68932038834896</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177">
-        <v>5.5154639175257696</v>
+        <v>5.4810996563573804</v>
       </c>
       <c r="B177">
-        <v>398.05825242718402</v>
+        <v>521.035598705501</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.3">
@@ -1811,15 +1823,15 @@
         <v>5.5154639175257696</v>
       </c>
       <c r="B178">
-        <v>423.94822006472401</v>
+        <v>398.05825242718402</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179">
-        <v>5.5498281786941499</v>
+        <v>5.5154639175257696</v>
       </c>
       <c r="B179">
-        <v>407.766990291262</v>
+        <v>423.94822006472401</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.3">
@@ -1827,39 +1839,39 @@
         <v>5.5498281786941499</v>
       </c>
       <c r="B180">
-        <v>543.68932038834896</v>
+        <v>407.766990291262</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A181">
-        <v>5.6357388316151198</v>
+        <v>5.5498281786941499</v>
       </c>
       <c r="B181">
-        <v>420.71197411003197</v>
+        <v>543.68932038834896</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182">
-        <v>5.6529209621993104</v>
+        <v>5.6357388316151198</v>
       </c>
       <c r="B182">
-        <v>396.44012944983803</v>
+        <v>420.71197411003197</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183">
-        <v>5.7044673539518804</v>
+        <v>5.6529209621993104</v>
       </c>
       <c r="B183">
-        <v>504.85436893203803</v>
+        <v>396.44012944983803</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A184">
-        <v>5.7731958762886499</v>
+        <v>5.7044673539518804</v>
       </c>
       <c r="B184">
-        <v>401.29449838187702</v>
+        <v>504.85436893203803</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.3">
@@ -1875,15 +1887,15 @@
         <v>5.7731958762886499</v>
       </c>
       <c r="B186">
-        <v>453.07443365695701</v>
+        <v>401.29449838187702</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187">
-        <v>5.7903780068728503</v>
+        <v>5.7731958762886499</v>
       </c>
       <c r="B187">
-        <v>391.58576051779897</v>
+        <v>453.07443365695701</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.3">
@@ -1891,23 +1903,23 @@
         <v>5.7903780068728503</v>
       </c>
       <c r="B188">
-        <v>420.71197411003197</v>
+        <v>391.58576051779897</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A189">
-        <v>5.80756013745704</v>
+        <v>5.7903780068728503</v>
       </c>
       <c r="B189">
-        <v>462.783171521035</v>
+        <v>420.71197411003197</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A190">
-        <v>5.8247422680412297</v>
+        <v>5.80756013745704</v>
       </c>
       <c r="B190">
-        <v>430.42071197411002</v>
+        <v>462.783171521035</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.3">
@@ -1915,111 +1927,111 @@
         <v>5.8247422680412297</v>
       </c>
       <c r="B191">
-        <v>501.61812297734599</v>
+        <v>430.42071197411002</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A192">
-        <v>5.8934707903780001</v>
+        <v>5.8247422680412297</v>
       </c>
       <c r="B192">
-        <v>425.56634304207103</v>
+        <v>501.61812297734599</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A193">
-        <v>5.9278350515463902</v>
+        <v>5.8934707903780001</v>
       </c>
       <c r="B193">
-        <v>537.21682847896398</v>
+        <v>425.56634304207103</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194">
-        <v>5.9621993127147697</v>
+        <v>5.9278350515463902</v>
       </c>
       <c r="B194">
-        <v>519.41747572815495</v>
+        <v>537.21682847896398</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A195">
-        <v>6.1168384879725002</v>
+        <v>5.9621993127147697</v>
       </c>
       <c r="B195">
-        <v>480.58252427184402</v>
+        <v>519.41747572815495</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196">
-        <v>6.1512027491408903</v>
+        <v>6.1168384879725002</v>
       </c>
       <c r="B196">
-        <v>472.49190938511299</v>
+        <v>480.58252427184402</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197">
-        <v>6.16838487972508</v>
+        <v>6.1512027491408903</v>
       </c>
       <c r="B197">
-        <v>504.85436893203803</v>
+        <v>472.49190938511299</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198">
-        <v>6.1855670103092697</v>
+        <v>6.16838487972508</v>
       </c>
       <c r="B198">
-        <v>480.58252427184402</v>
+        <v>504.85436893203803</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199">
-        <v>6.2371134020618504</v>
+        <v>6.1855670103092697</v>
       </c>
       <c r="B199">
-        <v>451.45631067961102</v>
+        <v>480.58252427184402</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200">
-        <v>6.2542955326460401</v>
+        <v>6.2371134020618504</v>
       </c>
       <c r="B200">
-        <v>550.16181229773395</v>
+        <v>451.45631067961102</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A201">
-        <v>6.2886597938144302</v>
+        <v>6.2542955326460401</v>
       </c>
       <c r="B201">
-        <v>472.49190938511299</v>
+        <v>550.16181229773395</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A202">
-        <v>6.3058419243986199</v>
+        <v>6.2886597938144302</v>
       </c>
       <c r="B202">
-        <v>459.54692556634302</v>
+        <v>472.49190938511299</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A203">
-        <v>6.3230240549828096</v>
+        <v>6.3058419243986199</v>
       </c>
       <c r="B203">
-        <v>396.44012944983803</v>
+        <v>459.54692556634302</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A204">
-        <v>6.34020618556701</v>
+        <v>6.3230240549828096</v>
       </c>
       <c r="B204">
-        <v>444.98381877022598</v>
+        <v>396.44012944983803</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.3">
@@ -2027,55 +2039,55 @@
         <v>6.34020618556701</v>
       </c>
       <c r="B205">
-        <v>487.05501618122901</v>
+        <v>444.98381877022598</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A206">
-        <v>6.3745704467353903</v>
+        <v>6.34020618556701</v>
       </c>
       <c r="B206">
-        <v>533.98058252427097</v>
+        <v>487.05501618122901</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A207">
-        <v>6.39175257731958</v>
+        <v>6.3745704467353903</v>
       </c>
       <c r="B207">
-        <v>687.70226537216797</v>
+        <v>533.98058252427097</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A208">
-        <v>6.4432989690721598</v>
+        <v>6.39175257731958</v>
       </c>
       <c r="B208">
-        <v>461.16504854368901</v>
+        <v>687.70226537216797</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A209">
-        <v>6.5979381443298903</v>
+        <v>6.4432989690721598</v>
       </c>
       <c r="B209">
-        <v>556.63430420711904</v>
+        <v>461.16504854368901</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A210">
-        <v>6.6151202749140801</v>
+        <v>6.5979381443298903</v>
       </c>
       <c r="B210">
-        <v>601.94174757281496</v>
+        <v>556.63430420711904</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A211">
-        <v>6.6494845360824701</v>
+        <v>6.6151202749140801</v>
       </c>
       <c r="B211">
-        <v>571.19741100323597</v>
+        <v>601.94174757281496</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.3">
@@ -2083,23 +2095,23 @@
         <v>6.6494845360824701</v>
       </c>
       <c r="B212">
-        <v>582.52427184466001</v>
+        <v>571.19741100323597</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A213">
-        <v>6.7353951890034303</v>
+        <v>6.6494845360824701</v>
       </c>
       <c r="B213">
-        <v>545.30744336569501</v>
+        <v>582.52427184466001</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A214">
-        <v>6.8041237113401998</v>
+        <v>6.7353951890034303</v>
       </c>
       <c r="B214">
-        <v>440.12944983818699</v>
+        <v>545.30744336569501</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.3">
@@ -2107,118 +2119,126 @@
         <v>6.8041237113401998</v>
       </c>
       <c r="B215">
-        <v>490.29126213592201</v>
+        <v>440.12944983818699</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A216">
-        <v>6.8556701030927796</v>
+        <v>6.8041237113401998</v>
       </c>
       <c r="B216">
-        <v>559.87055016181205</v>
+        <v>490.29126213592201</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A217">
-        <v>6.92439862542955</v>
+        <v>6.8556701030927796</v>
       </c>
       <c r="B217">
-        <v>540.45307443365698</v>
+        <v>559.87055016181205</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A218">
-        <v>7.1649484536082397</v>
+        <v>6.92439862542955</v>
       </c>
       <c r="B218">
-        <v>417.47572815533903</v>
+        <v>540.45307443365698</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A219">
-        <v>7.1993127147766298</v>
+        <v>7.1649484536082397</v>
       </c>
       <c r="B219">
-        <v>610.03236245954599</v>
+        <v>417.47572815533903</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A220">
-        <v>7.2680412371134002</v>
+        <v>7.1993127147766298</v>
       </c>
       <c r="B220">
-        <v>760.51779935274999</v>
+        <v>610.03236245954599</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A221">
-        <v>7.3367697594501697</v>
+        <v>7.2680412371134002</v>
       </c>
       <c r="B221">
-        <v>703.88349514563095</v>
+        <v>760.51779935274999</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A222">
-        <v>7.3711340206185501</v>
+        <v>7.3367697594501697</v>
       </c>
       <c r="B222">
-        <v>567.96116504854297</v>
+        <v>703.88349514563095</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A223">
-        <v>7.4054982817869401</v>
+        <v>7.3711340206185501</v>
       </c>
       <c r="B223">
-        <v>964.40129449838105</v>
+        <v>567.96116504854297</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A224">
-        <v>7.50859106529209</v>
+        <v>7.4054982817869401</v>
       </c>
       <c r="B224">
-        <v>511.32686084142301</v>
+        <v>964.40129449838105</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A225">
-        <v>7.9381443298969003</v>
+        <v>7.50859106529209</v>
       </c>
       <c r="B225">
-        <v>438.511326860841</v>
+        <v>511.32686084142301</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A226">
-        <v>8.3333333333333304</v>
+        <v>7.9381443298969003</v>
       </c>
       <c r="B226">
-        <v>475.72815533980503</v>
+        <v>438.511326860841</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A227">
-        <v>8.5051546391752506</v>
+        <v>8.3333333333333304</v>
       </c>
       <c r="B227">
-        <v>556.63430420711904</v>
+        <v>475.72815533980503</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A228">
-        <v>9.4158075601374502</v>
+        <v>8.5051546391752506</v>
       </c>
       <c r="B228">
-        <v>503.23624595469198</v>
+        <v>556.63430420711904</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A229">
+        <v>9.4158075601374502</v>
+      </c>
+      <c r="B229">
+        <v>503.23624595469198</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A230">
         <v>9.4673539518900292</v>
       </c>
-      <c r="B229">
+      <c r="B230">
         <v>592.23300970873697</v>
       </c>
     </row>
